--- a/excel/ricordi.xlsx
+++ b/excel/ricordi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView windowWidth="29745" windowHeight="14910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
   <si>
     <t>类别名称</t>
   </si>
@@ -95,6 +95,300 @@
   </si>
   <si>
     <t xml:space="preserve">pronunciare  </t>
+  </si>
+  <si>
+    <t>小费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mancia  </t>
+  </si>
+  <si>
+    <t>普通的；粗俗的；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volgare  </t>
+  </si>
+  <si>
+    <t>quello ragazzo si trucco in modo volgare.</t>
+  </si>
+  <si>
+    <t>s.f. [pl.-gie] 手提箱：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valigia  </t>
+  </si>
+  <si>
+    <t>fare le valigie收拾行李; 准备出发; 离开</t>
+  </si>
+  <si>
+    <t>(1) 机会，时机：(2) 场合，时刻，时节：(3) 理由，原因；藉口：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occasione  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all’occasione 有机会的时候 </t>
+  </si>
+  <si>
+    <t>agg. [pl.m. -ghi] 长的</t>
+  </si>
+  <si>
+    <t>lungo  </t>
+  </si>
+  <si>
+    <t>capelli lunghi 长发</t>
+  </si>
+  <si>
+    <t>(1) 规则, 章程：(2) 节制,分寸：(3) 准则, 标准; 习惯, 规律：(4) [数] 法则, 规则：</t>
+  </si>
+  <si>
+    <t>regola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di regola la sera ceno in casa.通常晚上我在家里吃饭。 </t>
+  </si>
+  <si>
+    <t>抗议,反对(1) 断言, 主张, 申明：(2) 拒绝支付, 拒绝承兑：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protestare  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protestare la propria innocenza申明自己无罪 </t>
+  </si>
+  <si>
+    <t>lamentare:(1) 悲痛(2) 记载, 记录 (伤亡事故)</t>
+  </si>
+  <si>
+    <t>lamentarsi</t>
+  </si>
+  <si>
+    <t>Non mi lamento. 我没有怨言 (意我很满意)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">混乱；混淆：喧哗，吵闹 </t>
+  </si>
+  <si>
+    <t>s.f.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confusione  </t>
+  </si>
+  <si>
+    <t>(1) 测量,(3) 限制, 节制：(4) 试穿, 给 (别人) 试穿：</t>
+  </si>
+  <si>
+    <t>misurare</t>
+  </si>
+  <si>
+    <t>bisogna misurare le spese</t>
+  </si>
+  <si>
+    <t>(1) 描写，描述，叙述：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.f. </t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">una vivace descrizione 生动的描写 </t>
+  </si>
+  <si>
+    <t>(1) 错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.m. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">errore  </t>
+  </si>
+  <si>
+    <t>errore di stampa 印刷错误</t>
+  </si>
+  <si>
+    <t>(1) 不舒适，不方便 (2) 不自在，拘束：</t>
+  </si>
+  <si>
+    <t>disagio</t>
+  </si>
+  <si>
+    <t>mettere a disagio qlcu. 使某人困窘</t>
+  </si>
+  <si>
+    <t>(1) 表示, 表明, 显示：(2) [assol.] 举行示威：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manifestare  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manifestare la propria opinione表明自己的意见 </t>
+  </si>
+  <si>
+    <t>(1) 声调, 音调：(2) 语气, 语调,口气：(3) 格调, 风度; 风格：(4) [音] 调式(5) 色调：</t>
+  </si>
+  <si>
+    <t>tono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vestire in tono dimesso衣着朴素 </t>
+  </si>
+  <si>
+    <t>(1) 溶解, 溶液：(2) 解决, 解决的办法；解答,答案：(3) 付清, 偿清：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soluzione  </t>
+  </si>
+  <si>
+    <t>venire a una soluzione 作出决定</t>
+  </si>
+  <si>
+    <t>(1) 展开,打开, 摊开</t>
+  </si>
+  <si>
+    <t>svolgere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svolgere un pacco打开包裹 </t>
+  </si>
+  <si>
+    <t>agg.(1) 负责的：(2) 负责任的, 有责任心的：(3) 有罪过的, 有责任的s.m. 或 s.f. 负责人; 有罪责的人：</t>
+  </si>
+  <si>
+    <t>responsabile</t>
+  </si>
+  <si>
+    <t>Ciascuno è responsabile delle proprie azioni. 每个人都对自己的行动负责。</t>
+  </si>
+  <si>
+    <t>(1) 顺序, 次序：(2) 秩序：(3) (自由职业者的) 同业公会, 会, 团：(4) 等级, 种类; 范畴：(9) 命令：(10) 定货; 定货单; 通知单：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.m. [órdine] </t>
+  </si>
+  <si>
+    <t>ordine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero d’ordine 序号; ordini cavallereschi 骑士团 </t>
+  </si>
+  <si>
+    <t>记者</t>
+  </si>
+  <si>
+    <t>giornalista</t>
+  </si>
+  <si>
+    <t>专家</t>
+  </si>
+  <si>
+    <t>esperta</t>
+  </si>
+  <si>
+    <t>欢迎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benvenuto  </t>
+  </si>
+  <si>
+    <t>Benvenuto! 欢迎！</t>
+  </si>
+  <si>
+    <t>s.m. [f. -trice] 听众，收听者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascoltatore  </t>
+  </si>
+  <si>
+    <t>表现，举止：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportarsi </t>
+  </si>
+  <si>
+    <t>Si sono comportati coraggiosamente. 他们表现勇敢。</t>
+  </si>
+  <si>
+    <t>(1) 论点，论据：(2) 机会；理由，借口：(3) 题目，题材；论题；问题：</t>
+  </si>
+  <si>
+    <t>argomento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uscire dall’argomento离题 </t>
+  </si>
+  <si>
+    <t>(1) 基本的, 根本的, (作为) 基础的：(2) 十分重要的, 极其重要的：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fondamentale  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">una questione fondamentale 一个极其重要的问题 </t>
+  </si>
+  <si>
+    <t>(1) 中部的,中间的：(2) 中等的,一般的：(3) 平均的：</t>
+  </si>
+  <si>
+    <t>medio</t>
+  </si>
+  <si>
+    <t>dito medio 中指</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 兜，衣袋，口袋：(2) (手提箱、提包等的) 夹袋borsellino a due tasche有两个夹袋的小提包 </t>
+  </si>
+  <si>
+    <t>tasca</t>
+  </si>
+  <si>
+    <t>avere in tasca qlcu.不能容忍某人</t>
+  </si>
+  <si>
+    <t>酬报，酬劳，酬谢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricompensare  </t>
+  </si>
+  <si>
+    <t>I suoi sforzi sarenno ricompensati dal successo. 他的努力将获得成功。</t>
+  </si>
+  <si>
+    <t>(1) 夸大，夸张：(2) [assol.] 言过其 实：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esagerare  </t>
+  </si>
+  <si>
+    <t>esagerare i propri meriti夸大自己的功劳</t>
+  </si>
+  <si>
+    <t>(1) 印记,印痕; 压印：(2) 印,印刷,印制,印版 (3) [转] 印象, 感受, 感想; 感觉：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impressione  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non giudicare dalla prima impressione.不要根据初步印象作判断。 </t>
+  </si>
+  <si>
+    <t>教育程度高的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educato  </t>
+  </si>
+  <si>
+    <t>(1) 时期，阶段，期间：(2) 期，周期：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[perìodo] s.m. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">periodo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">il periodo fra le due guerre mondiali 两次世界大战之间的年代 </t>
   </si>
 </sst>
 </file>
@@ -107,7 +401,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -118,6 +412,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -599,51 +899,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,98 +950,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +1053,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,19 +1382,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="8.55833333333333" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="65.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="65.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1194,128 +1503,376 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" ht="54" spans="2:5">
+      <c r="B40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/ricordi.xlsx
+++ b/excel/ricordi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29745" windowHeight="14910"/>
+    <workbookView windowWidth="30255" windowHeight="14910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
   <si>
     <t>类别名称</t>
   </si>
@@ -61,6 +61,15 @@
     <t>assumere</t>
   </si>
   <si>
+    <t>(1) 再担任，再承担：(2) 返聘(3) 概括，概述：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riassumere  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">riassumere un impiegato 重新聘请职员 </t>
+  </si>
+  <si>
     <t>美味的，提纯的，文雅的</t>
   </si>
   <si>
@@ -389,6 +398,153 @@
   </si>
   <si>
     <t xml:space="preserve">il periodo fra le due guerre mondiali 两次世界大战之间的年代 </t>
+  </si>
+  <si>
+    <t>(1) 无教养, 无礼, 粗鲁 (2) 无教养的行为,粗鲁的行为</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maleducazione  </t>
+  </si>
+  <si>
+    <t>(1) [f.-essa] 冠军：(2) 样品；标本：agg. [invar.] (1) 优胜的，第一流的：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campione  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prelevare un campione 抽样 </t>
+  </si>
+  <si>
+    <t>避免</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evitare  </t>
+  </si>
+  <si>
+    <t>(1) 行李：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bagaglio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deposito bagagli行李寄存处 </t>
+  </si>
+  <si>
+    <t>s.f. 钞票：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banconota  </t>
+  </si>
+  <si>
+    <t>una banconota da dieci yuan 一张十元的钞票</t>
+  </si>
+  <si>
+    <t>s.m. 姿势，姿态；态度：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atteggiamento  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">un atteggiamento equivoco 模棱两可的态度 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 思维，思考；思想：(2) 沉思，默想：(3) 想法，意见，主意：(4) 忧虑，担心：(5) [口] 关心，心意；礼物：(6) 格言，警句 </t>
+  </si>
+  <si>
+    <t>pensiero  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">andare (riandare) col pensiero a qlco. 想到 (回想) 某事 </t>
+  </si>
+  <si>
+    <t>(1) 手抄本，原稿：(2) [律] 法典，法则：(3) 规则，准则：(4) 代码，电码：</t>
+  </si>
+  <si>
+    <t>[còdice] s.m.</t>
+  </si>
+  <si>
+    <t>codice</t>
+  </si>
+  <si>
+    <t>incappare (inciampare) nel codice 犯法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 举止，行为；态度，表现：(2) [转] (动植物或物品的) 状态；性能 </t>
+  </si>
+  <si>
+    <t>comportamento</t>
+  </si>
+  <si>
+    <t>Il sua comportamenta nel lavoro è apprezzato da tutti.他在工作中的表现受到大家的赞扬。</t>
+  </si>
+  <si>
+    <t>(1) 字，字体：(2) [印] 铅字，活字：(3) (事物的) 性质；特性，特征：(4) 性格，秉性：(5) 个性；骨气：</t>
+  </si>
+  <si>
+    <t>[caràttere]s.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carattere  </t>
+  </si>
+  <si>
+    <t>incompattibilità di carattere 性格不和，脾气不和 (尤其指夫妻之间)</t>
+  </si>
+  <si>
+    <t>发现</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scoperta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">una grande scoperta scientifica伟大的科学发明 </t>
+  </si>
+  <si>
+    <t>(1) 赴, 赶去; 移到,挪到：(2) 举动, 举止, 表现：(3) 处于...健康状况：</t>
+  </si>
+  <si>
+    <t>portarsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portare bene (male) con qlcu.待某人好 (坏) </t>
+  </si>
+  <si>
+    <t>(1) 整理, 整顿,使有秩序：(2) 调解, 解决:(3) 安插, 安置, 安排 (指住房、职业等)(4) 把…嫁出去(5) [口] 收拾 (某人), 教训 (某人)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistemare  </t>
+  </si>
+  <si>
+    <t>sistemare i propri appunti整理自已的笔记</t>
+  </si>
+  <si>
+    <t>(1) (发信号) 标明, 指示, 示意(4) 使显着,使出名</t>
+  </si>
+  <si>
+    <t>segnalare  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">segnalare un candidato推荐一名应考生 </t>
+  </si>
+  <si>
+    <t>agg. 合适的；特殊的，专门的：</t>
+  </si>
+  <si>
+    <t>apposito  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprire la cassetta con l’apposito chiave 用专门的钥匙开小箱子 </t>
+  </si>
+  <si>
+    <t>s.m. 衣柜，衣橱：pl armadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armadio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">armadio a muro壁橱 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1217,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1382,17 +1541,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.55833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.4333333333333" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="65.8916666666667" customWidth="1"/>
   </cols>
@@ -1454,70 +1613,70 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1569,7 +1728,7 @@
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E19" t="s">
@@ -1580,32 +1739,32 @@
       <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1613,36 +1772,33 @@
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" t="s">
         <v>58</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
         <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>65</v>
@@ -1655,6 +1811,9 @@
       <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
@@ -1669,7 +1828,7 @@
       <c r="D27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1677,13 +1836,10 @@
       <c r="B28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
       <c r="D28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1691,6 +1847,9 @@
       <c r="B29" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>77</v>
       </c>
@@ -1713,68 +1872,65 @@
       <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" t="s">
         <v>84</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
+      <c r="C32" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:5">
       <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="4" t="s">
+      <c r="E35" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>99</v>
@@ -1787,6 +1943,9 @@
       <c r="B38" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
       <c r="D38" s="2" t="s">
         <v>102</v>
       </c>
@@ -1805,8 +1964,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" ht="54" spans="2:5">
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="2:5">
+      <c r="B40" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1816,8 +1975,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="2" t="s">
+    <row r="41" ht="54" spans="2:5">
+      <c r="B41" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1842,9 +2001,6 @@
       <c r="B43" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
       <c r="D43" s="2" t="s">
         <v>117</v>
       </c>
@@ -1852,26 +2008,234 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
+    <row r="44" spans="2:5">
+      <c r="B44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="E44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s">
         <v>122</v>
       </c>
       <c r="D45" t="s">
         <v>123</v>
       </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
         <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="2:4">
+      <c r="B47" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="2:5">
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ricordi.xlsx
+++ b/excel/ricordi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="231">
   <si>
     <t>类别名称</t>
   </si>
@@ -544,7 +544,169 @@
     <t xml:space="preserve">armadio a muro壁橱 </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>(1) 横着地, 斜着地 (2) 穿过, 通过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attraversare  </t>
+  </si>
+  <si>
+    <t>Oggi mi va tutto attraverso.我今天一切都不顺利。</t>
+  </si>
+  <si>
+    <t>大盆，水盆；池，槽；缸：pl vasche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vasca  </t>
+  </si>
+  <si>
+    <t>vasca dei pesci 鱼缸</t>
+  </si>
+  <si>
+    <t>有光彩的, 灿烂的：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">splendido  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vittoria splendida辉煌的胜利 </t>
+  </si>
+  <si>
+    <t>agg. (1) 模范的(2) 作为惩戒性的;s.m. (1) 模范(2) 份，册(3) 样品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esemplare  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">una condotta esemplare 模范的行为 </t>
+  </si>
+  <si>
+    <t>(1) 给…看(2) 指示(3) 显示;(4) (通过示范动作) 说明(5) 装出;mostrarsi (1) 露面(2) 显得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mostrare  </t>
+  </si>
+  <si>
+    <t>mostrare la fronte昂首挺胸</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不许，禁止，不准</t>
+  </si>
+  <si>
+    <t>vietare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietare l’ingresso agli estranei. 闲人免进。 </t>
+  </si>
+  <si>
+    <t>(1) 打, 击, 敲(2) 炮击(3) 打败(4) 捶击, 拍击 (自身的某部位) (5) 搜寻</t>
+  </si>
+  <si>
+    <t>battere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battersi la fronte (用手指) 轻击前额 (表示突然想起某事或悔悟) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 玻璃(2) 玻璃制品(3) 玻璃碎片(4) 酒杯(5) 镜片(6) (钟、表的) 表面玻璃 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vetro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rompere un vetro 打碎一块玻璃 </t>
+  </si>
+  <si>
+    <t>v.intr(1) (弹簧等) 突然松开, 弹起(2) [转] 跳起, 跃起 v.tr. 拍摄</t>
+  </si>
+  <si>
+    <t>scattare</t>
+  </si>
+  <si>
+    <t>scattare una foto拍照片</t>
+  </si>
+  <si>
+    <t>v.tr.(1) 买(2) 获得 v.intr 得益;改善</t>
+  </si>
+  <si>
+    <t>acquistare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acquistare credito presso qlcu.取得某人的信任 </t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>fermare</t>
+  </si>
+  <si>
+    <t>Nessuno può fermare la corrente della storia. 任何人不能阻挡历史潮流。</t>
+  </si>
+  <si>
+    <t>avv. 近, 靠近, 附近</t>
+  </si>
+  <si>
+    <t>presso</t>
+  </si>
+  <si>
+    <t>Li presso c’è un laghetto.离那儿不远有一个小湖。</t>
+  </si>
+  <si>
+    <t>s.m. 小吃; 快餐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spuntino  </t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>铁路的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferroviario  </t>
+  </si>
+  <si>
+    <t>casello dell’autostrada 高速公路上的收费站</t>
+  </si>
+  <si>
+    <t>s.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casello  </t>
+  </si>
+  <si>
+    <t>继续，持续</t>
+  </si>
+  <si>
+    <t>continuare</t>
+  </si>
+  <si>
+    <t>实行，实施，执行</t>
+  </si>
+  <si>
+    <t>effettuare</t>
+  </si>
+  <si>
+    <t>全部的</t>
+  </si>
+  <si>
+    <t>intero</t>
+  </si>
+  <si>
+    <t>里面的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interno  </t>
+  </si>
+  <si>
+    <t>没变化的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invariato  </t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1703,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2045,7 +2207,7 @@
       </c>
     </row>
     <row r="47" ht="40.5" spans="2:4">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C47" t="s">
@@ -2078,7 +2240,6 @@
       <c r="B50" t="s">
         <v>135</v>
       </c>
-      <c r="C50"/>
       <c r="D50" t="s">
         <v>136</v>
       </c>
@@ -2098,7 +2259,7 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D52" t="s">
@@ -2154,7 +2315,7 @@
       <c r="B56" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D56" t="s">
@@ -2233,9 +2394,217 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:5">
       <c r="B63" t="s">
         <v>176</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ricordi.xlsx
+++ b/excel/ricordi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30255" windowHeight="14910"/>
+    <workbookView windowWidth="25575" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="378">
   <si>
     <t>类别名称</t>
   </si>
@@ -589,124 +589,565 @@
     <t>mostrare la fronte昂首挺胸</t>
   </si>
   <si>
-    <t xml:space="preserve"> 不许，禁止，不准</t>
+    <t>(1) 打, 击, 敲(2) 炮击(3) 打败(4) 捶击, 拍击 (自身的某部位) (5) 搜寻</t>
+  </si>
+  <si>
+    <t>battere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battersi la fronte (用手指) 轻击前额 (表示突然想起某事或悔悟) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 玻璃(2) 玻璃制品(3) 玻璃碎片(4) 酒杯(5) 镜片(6) (钟、表的) 表面玻璃 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vetro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rompere un vetro 打碎一块玻璃 </t>
+  </si>
+  <si>
+    <t>v.intr(1) (弹簧等) 突然松开, 弹起(2) [转] 跳起, 跃起 v.tr. 拍摄</t>
+  </si>
+  <si>
+    <t>scattare</t>
+  </si>
+  <si>
+    <t>scattare una foto拍照片</t>
+  </si>
+  <si>
+    <t>v.tr.(1) 买(2) 获得 v.intr 得益;改善</t>
+  </si>
+  <si>
+    <t>acquistare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acquistare credito presso qlcu.取得某人的信任 </t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>fermare</t>
+  </si>
+  <si>
+    <t>Nessuno può fermare la corrente della storia. 任何人不能阻挡历史潮流。</t>
+  </si>
+  <si>
+    <t>avv. 近, 靠近, 附近</t>
+  </si>
+  <si>
+    <t>presso</t>
+  </si>
+  <si>
+    <t>Li presso c’è un laghetto.离那儿不远有一个小湖。</t>
+  </si>
+  <si>
+    <t>s.m. 小吃; 快餐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spuntino  </t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>铁路的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferroviario  </t>
+  </si>
+  <si>
+    <t>casello dell’autostrada 高速公路上的收费站</t>
+  </si>
+  <si>
+    <t>s.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casello  </t>
+  </si>
+  <si>
+    <t>继续，持续</t>
+  </si>
+  <si>
+    <t>continuare</t>
+  </si>
+  <si>
+    <t>实行，实施，执行</t>
+  </si>
+  <si>
+    <t>effettuare</t>
+  </si>
+  <si>
+    <t>全部的</t>
+  </si>
+  <si>
+    <t>intero</t>
+  </si>
+  <si>
+    <t>里面的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interno  </t>
+  </si>
+  <si>
+    <t>没变化的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invariato  </t>
+  </si>
+  <si>
+    <t>riferirsi + a</t>
+  </si>
+  <si>
+    <t>有关</t>
+  </si>
+  <si>
+    <t>spettacolo</t>
+  </si>
+  <si>
+    <t>戏剧</t>
+  </si>
+  <si>
+    <t>socio</t>
+  </si>
+  <si>
+    <t>成员</t>
+  </si>
+  <si>
+    <t>puntata</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>girasole</t>
+  </si>
+  <si>
+    <t>向日葵</t>
+  </si>
+  <si>
+    <t>compagnia</t>
+  </si>
+  <si>
+    <t>戏剧团体</t>
+  </si>
+  <si>
+    <t>rapporto</t>
+  </si>
+  <si>
+    <t>报告，联系，关系</t>
+  </si>
+  <si>
+    <t>docente</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>aule</t>
+  </si>
+  <si>
+    <t>教室</t>
+  </si>
+  <si>
+    <t>aumentare</t>
+  </si>
+  <si>
+    <t>增加</t>
+  </si>
+  <si>
+    <t>rilassarsi</t>
+  </si>
+  <si>
+    <t>放松</t>
+  </si>
+  <si>
+    <t>attività</t>
+  </si>
+  <si>
+    <t>活动，事务</t>
+  </si>
+  <si>
+    <t>favorire</t>
+  </si>
+  <si>
+    <t>有利于，赞成</t>
+  </si>
+  <si>
+    <t>durata</t>
+  </si>
+  <si>
+    <t>期间</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>rivolto</t>
+  </si>
+  <si>
+    <t>朝向，转向</t>
+  </si>
+  <si>
+    <t>caricare</t>
+  </si>
+  <si>
+    <t>load，fill</t>
+  </si>
+  <si>
+    <t>gratuita</t>
+  </si>
+  <si>
+    <t>免费</t>
+  </si>
+  <si>
+    <t>premio</t>
+  </si>
+  <si>
+    <t>奖金</t>
+  </si>
+  <si>
+    <t>premiazione</t>
+  </si>
+  <si>
+    <t>颁奖仪式</t>
+  </si>
+  <si>
+    <t>svolgersi</t>
+  </si>
+  <si>
+    <t>开展，进行</t>
+  </si>
+  <si>
+    <t>orto</t>
+  </si>
+  <si>
+    <t>菜园</t>
+  </si>
+  <si>
+    <t>rinunziare</t>
+  </si>
+  <si>
+    <t>放弃</t>
+  </si>
+  <si>
+    <t>allenarsi</t>
+  </si>
+  <si>
+    <t>训练</t>
+  </si>
+  <si>
+    <t>attirare</t>
+  </si>
+  <si>
+    <t>attract/draw/catch</t>
+  </si>
+  <si>
+    <t>raccolta</t>
+  </si>
+  <si>
+    <t>采集</t>
+  </si>
+  <si>
+    <t>recitare</t>
+  </si>
+  <si>
+    <t>扮演、背诵</t>
+  </si>
+  <si>
+    <t>campeggio</t>
+  </si>
+  <si>
+    <t>露营</t>
+  </si>
+  <si>
+    <t>laureando</t>
+  </si>
+  <si>
+    <t>大学毕业班学生</t>
+  </si>
+  <si>
+    <t>alunno</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>soddisfatto</t>
+  </si>
+  <si>
+    <t>满意的 satisfied</t>
+  </si>
+  <si>
+    <t>coetaneo</t>
+  </si>
+  <si>
+    <t>同龄人</t>
+  </si>
+  <si>
+    <t>disposto</t>
+  </si>
+  <si>
+    <t>有...倾向的</t>
+  </si>
+  <si>
+    <t>giuzizio</t>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>scolastico</t>
+  </si>
+  <si>
+    <t>学校的</t>
+  </si>
+  <si>
+    <t>mostrare</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>stimolare</t>
+  </si>
+  <si>
+    <t>刺激</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elenco  </t>
+  </si>
+  <si>
+    <t>一览表，目录；名单</t>
+  </si>
+  <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>地点,场所</t>
+  </si>
+  <si>
+    <t>sede stradale车行道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contenere  </t>
+  </si>
+  <si>
+    <t>contain,hold</t>
+  </si>
+  <si>
+    <t>inserire  </t>
+  </si>
+  <si>
+    <t>put in, insert</t>
+  </si>
+  <si>
+    <t>inserire una spina [电] 插插头；接通电话</t>
+  </si>
+  <si>
+    <t>regolamento</t>
+  </si>
+  <si>
+    <t>整治；规定；解决</t>
+  </si>
+  <si>
+    <t>prevedere</t>
+  </si>
+  <si>
+    <t>foresee，expect</t>
+  </si>
+  <si>
+    <t>Tutto è andato come s’era previsto.一切都在预料之中。</t>
+  </si>
+  <si>
+    <t>ingresso</t>
+  </si>
+  <si>
+    <t>entrance</t>
+  </si>
+  <si>
+    <t>abbonamento</t>
+  </si>
+  <si>
+    <t>subscription, season ticket, pass</t>
+  </si>
+  <si>
+    <t>Il suo abbonamento scade il mese prossimo 他订的报刊下月到期。</t>
+  </si>
+  <si>
+    <t>giuria</t>
+  </si>
+  <si>
+    <t>(考试、竞赛时的) 评判团，评判委员会；[律] 陪审团</t>
+  </si>
+  <si>
+    <t>piattaforma</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>assegnare</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>inferiore</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>vietare</t>
   </si>
   <si>
-    <t xml:space="preserve">Vietare l’ingresso agli estranei. 闲人免进。 </t>
-  </si>
-  <si>
-    <t>(1) 打, 击, 敲(2) 炮击(3) 打败(4) 捶击, 拍击 (自身的某部位) (5) 搜寻</t>
-  </si>
-  <si>
-    <t>battere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">battersi la fronte (用手指) 轻击前额 (表示突然想起某事或悔悟) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) 玻璃(2) 玻璃制品(3) 玻璃碎片(4) 酒杯(5) 镜片(6) (钟、表的) 表面玻璃 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vetro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rompere un vetro 打碎一块玻璃 </t>
-  </si>
-  <si>
-    <t>v.intr(1) (弹簧等) 突然松开, 弹起(2) [转] 跳起, 跃起 v.tr. 拍摄</t>
-  </si>
-  <si>
-    <t>scattare</t>
-  </si>
-  <si>
-    <t>scattare una foto拍照片</t>
-  </si>
-  <si>
-    <t>v.tr.(1) 买(2) 获得 v.intr 得益;改善</t>
-  </si>
-  <si>
-    <t>acquistare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acquistare credito presso qlcu.取得某人的信任 </t>
-  </si>
-  <si>
-    <t>停止</t>
-  </si>
-  <si>
-    <t>fermare</t>
-  </si>
-  <si>
-    <t>Nessuno può fermare la corrente della storia. 任何人不能阻挡历史潮流。</t>
-  </si>
-  <si>
-    <t>avv. 近, 靠近, 附近</t>
-  </si>
-  <si>
-    <t>presso</t>
-  </si>
-  <si>
-    <t>Li presso c’è un laghetto.离那儿不远有一个小湖。</t>
-  </si>
-  <si>
-    <t>s.m. 小吃; 快餐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spuntino  </t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>铁路的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferroviario  </t>
-  </si>
-  <si>
-    <t>casello dell’autostrada 高速公路上的收费站</t>
-  </si>
-  <si>
-    <t>s.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casello  </t>
-  </si>
-  <si>
-    <t>继续，持续</t>
-  </si>
-  <si>
-    <t>continuare</t>
-  </si>
-  <si>
-    <t>实行，实施，执行</t>
-  </si>
-  <si>
-    <t>effettuare</t>
-  </si>
-  <si>
-    <t>全部的</t>
-  </si>
-  <si>
-    <t>intero</t>
-  </si>
-  <si>
-    <t>里面的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interno  </t>
-  </si>
-  <si>
-    <t>没变化的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invariato  </t>
+    <t>不许，禁止，不准</t>
+  </si>
+  <si>
+    <t>Vietare l’ingresso agli estranei. 闲人免进。</t>
+  </si>
+  <si>
+    <t>promuovere</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>promuovere l’attività sportiva 推动体育活动</t>
+  </si>
+  <si>
+    <t>regolare</t>
+  </si>
+  <si>
+    <t>vt.管理，算账，处理;agg.regular</t>
+  </si>
+  <si>
+    <t>regolare i propri sentimenti控制自己的感情</t>
+  </si>
+  <si>
+    <t>società</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>societa umana人类社会</t>
+  </si>
+  <si>
+    <t>trascorrere</t>
+  </si>
+  <si>
+    <t>浏览,翻阅;度过;</t>
+  </si>
+  <si>
+    <t>trascorrere un libro翻阅一本书</t>
+  </si>
+  <si>
+    <t>coppia</t>
+  </si>
+  <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>officina</t>
+  </si>
+  <si>
+    <t>工厂；车间；作坊</t>
+  </si>
+  <si>
+    <t>manutenzione</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>onesto</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>colpire</t>
+  </si>
+  <si>
+    <t>给以深刻印象,打动</t>
+  </si>
+  <si>
+    <t>Il suo sguardo mi ha profondamente colpito.他的目光使我深受感动。</t>
+  </si>
+  <si>
+    <t>ripercorrere</t>
+  </si>
+  <si>
+    <t>重新经过，又穿过</t>
+  </si>
+  <si>
+    <t>ripercorrere una strada 又经过这一条街</t>
+  </si>
+  <si>
+    <t>tassista</t>
+  </si>
+  <si>
+    <t>s.m.[pl.-sti] 出租汽车司机</t>
+  </si>
+  <si>
+    <t>legare</t>
+  </si>
+  <si>
+    <t>联系，装订(书)，联结</t>
+  </si>
+  <si>
+    <t>torre</t>
+  </si>
+  <si>
+    <t>tower</t>
+  </si>
+  <si>
+    <t>indispensabile</t>
+  </si>
+  <si>
+    <t>必不可少的，必需的</t>
+  </si>
+  <si>
+    <t>meritare</t>
+  </si>
+  <si>
+    <t>deserve</t>
+  </si>
+  <si>
+    <t>会议, 聚会</t>
+  </si>
+  <si>
+    <t>disponibile</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>protesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抗议, 异议;主张, 申明： </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lettera di protesta 抗议信 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avvisare  </t>
+  </si>
+  <si>
+    <t>通知, 告知：告诫, 警告：</t>
+  </si>
+  <si>
+    <t>Ti prego di avvisare i compagni che domani avrà luogo una riunione importante.请你通知同志们, 明天有一个重要的会议。</t>
   </si>
 </sst>
 </file>
@@ -1703,15 +2144,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="15.4333333333333" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
@@ -2518,38 +2961,38 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:4">
       <c r="B74" t="s">
         <v>209</v>
       </c>
       <c r="D74" t="s">
         <v>210</v>
       </c>
-      <c r="E74" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" t="s">
         <v>212</v>
-      </c>
-      <c r="D75" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
         <v>214</v>
-      </c>
-      <c r="C76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D77" t="s">
@@ -2560,51 +3003,631 @@
       <c r="B78" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="D78" t="s">
         <v>219</v>
-      </c>
-      <c r="D78" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" t="s">
         <v>221</v>
-      </c>
-      <c r="D79" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" t="s">
         <v>223</v>
-      </c>
-      <c r="D80" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
+        <v>224</v>
+      </c>
+      <c r="D81" t="s">
         <v>225</v>
-      </c>
-      <c r="D81" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" t="s">
         <v>227</v>
-      </c>
-      <c r="D82" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" t="s">
         <v>229</v>
       </c>
-      <c r="D83" t="s">
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
         <v>230</v>
+      </c>
+      <c r="D84" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>264</v>
+      </c>
+      <c r="D101" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>270</v>
+      </c>
+      <c r="D104" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>276</v>
+      </c>
+      <c r="D107" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
+        <v>280</v>
+      </c>
+      <c r="D109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" t="s">
+        <v>284</v>
+      </c>
+      <c r="D111" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>286</v>
+      </c>
+      <c r="D112" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>288</v>
+      </c>
+      <c r="D113" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>290</v>
+      </c>
+      <c r="D114" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>292</v>
+      </c>
+      <c r="D115" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>294</v>
+      </c>
+      <c r="D116" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>300</v>
+      </c>
+      <c r="D119" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>302</v>
+      </c>
+      <c r="D120" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" t="s">
+        <v>304</v>
+      </c>
+      <c r="D121" t="s">
+        <v>305</v>
+      </c>
+      <c r="E121" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>307</v>
+      </c>
+      <c r="D122" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" t="s">
+        <v>309</v>
+      </c>
+      <c r="D123" t="s">
+        <v>310</v>
+      </c>
+      <c r="E123" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>312</v>
+      </c>
+      <c r="D124" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" t="s">
+        <v>314</v>
+      </c>
+      <c r="D125" t="s">
+        <v>315</v>
+      </c>
+      <c r="E125" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>317</v>
+      </c>
+      <c r="D126" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" t="s">
+        <v>319</v>
+      </c>
+      <c r="D127" t="s">
+        <v>320</v>
+      </c>
+      <c r="E127" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>322</v>
+      </c>
+      <c r="D128" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
+        <v>324</v>
+      </c>
+      <c r="D129" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
+        <v>326</v>
+      </c>
+      <c r="D130" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" t="s">
+        <v>330</v>
+      </c>
+      <c r="D132" t="s">
+        <v>331</v>
+      </c>
+      <c r="E132" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" t="s">
+        <v>333</v>
+      </c>
+      <c r="D133" t="s">
+        <v>334</v>
+      </c>
+      <c r="E133" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" t="s">
+        <v>336</v>
+      </c>
+      <c r="D134" t="s">
+        <v>337</v>
+      </c>
+      <c r="E134" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" t="s">
+        <v>339</v>
+      </c>
+      <c r="D135" t="s">
+        <v>340</v>
+      </c>
+      <c r="E135" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" t="s">
+        <v>342</v>
+      </c>
+      <c r="D136" t="s">
+        <v>343</v>
+      </c>
+      <c r="E136" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>345</v>
+      </c>
+      <c r="D137" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
+        <v>347</v>
+      </c>
+      <c r="D138" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" t="s">
+        <v>349</v>
+      </c>
+      <c r="D139" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
+        <v>351</v>
+      </c>
+      <c r="D140" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" t="s">
+        <v>353</v>
+      </c>
+      <c r="D141" t="s">
+        <v>354</v>
+      </c>
+      <c r="E141" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" t="s">
+        <v>356</v>
+      </c>
+      <c r="D142" t="s">
+        <v>357</v>
+      </c>
+      <c r="E142" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" t="s">
+        <v>359</v>
+      </c>
+      <c r="D143" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
+        <v>361</v>
+      </c>
+      <c r="D144" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>363</v>
+      </c>
+      <c r="D145" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>367</v>
+      </c>
+      <c r="D147" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" t="s">
+        <v>370</v>
+      </c>
+      <c r="D149" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>372</v>
+      </c>
+      <c r="D150" t="s">
+        <v>373</v>
+      </c>
+      <c r="E150" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>375</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E151" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
